--- a/Capstone Design/개발일정/개발 일정표.xlsx
+++ b/Capstone Design/개발일정/개발 일정표.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
     <t>UI</t>
   </si>
@@ -252,6 +252,22 @@
   </si>
   <si>
     <t>카메라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>핵심 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수행하지 않는 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변동 내용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -259,7 +275,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -287,6 +303,7 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -294,7 +311,15 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF00B050"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF0000FF"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -852,7 +877,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -892,211 +917,220 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1573,7 +1607,7 @@
   <dimension ref="B1:AT48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="AT27" sqref="AT27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="19.350000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1586,96 +1620,104 @@
     <col min="39" max="39" width="10.77734375" style="1" customWidth="1"/>
     <col min="40" max="40" width="12.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="1.77734375" style="1" customWidth="1"/>
-    <col min="42" max="16384" width="8.88671875" style="1"/>
+    <col min="42" max="42" width="8.88671875" style="1"/>
+    <col min="43" max="43" width="19.5546875" style="1" customWidth="1"/>
+    <col min="44" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:46" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:46" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="41"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="43" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="43" t="s">
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="46" t="s">
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="46" t="s">
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="43" t="s">
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="43" t="s">
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="43" t="s">
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="75"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="67"/>
       <c r="AK2" s="4"/>
       <c r="AM2" s="6"/>
       <c r="AN2" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="AP2" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="3" spans="2:46" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="69" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
       <c r="O3" s="12"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="30"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="24"/>
       <c r="S3" s="12"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="30"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="24"/>
       <c r="W3" s="12"/>
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
@@ -1688,38 +1730,44 @@
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
       <c r="AH3" s="12"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="77"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="59"/>
       <c r="AK3" s="5"/>
       <c r="AM3" s="2"/>
       <c r="AN3" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="AP3" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="4" spans="2:46" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="47"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
       <c r="O4" s="12"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="30"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="24"/>
       <c r="S4" s="12"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="30"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="24"/>
       <c r="W4" s="12"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
@@ -1732,38 +1780,44 @@
       <c r="AF4" s="12"/>
       <c r="AG4" s="12"/>
       <c r="AH4" s="12"/>
-      <c r="AI4" s="28"/>
-      <c r="AJ4" s="77"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="59"/>
       <c r="AK4" s="5"/>
       <c r="AM4" s="7"/>
       <c r="AN4" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="AP4" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="5" spans="2:46" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="69"/>
       <c r="D5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="15"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="53"/>
+      <c r="G5" s="39"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="24"/>
+      <c r="M5" s="18"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="30"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="24"/>
       <c r="S5" s="12"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="30"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
@@ -1776,8 +1830,8 @@
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
       <c r="AH5" s="12"/>
-      <c r="AI5" s="28"/>
-      <c r="AJ5" s="77"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="59"/>
       <c r="AK5" s="5"/>
       <c r="AM5" s="3"/>
       <c r="AN5" s="1" t="s">
@@ -1785,15 +1839,15 @@
       </c>
     </row>
     <row r="6" spans="2:46" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="69"/>
       <c r="D6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="24"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="18"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -1801,13 +1855,13 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="30"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="24"/>
       <c r="S6" s="12"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="30"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="24"/>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
@@ -1820,38 +1874,38 @@
       <c r="AF6" s="12"/>
       <c r="AG6" s="12"/>
       <c r="AH6" s="12"/>
-      <c r="AI6" s="28"/>
-      <c r="AJ6" s="77"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="59"/>
       <c r="AK6" s="5"/>
-      <c r="AM6" s="58"/>
+      <c r="AM6" s="43"/>
       <c r="AN6" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:46" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="9"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="30"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="24"/>
       <c r="S7" s="12"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="30"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="24"/>
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
@@ -1864,29 +1918,29 @@
       <c r="AF7" s="12"/>
       <c r="AG7" s="12"/>
       <c r="AH7" s="12"/>
-      <c r="AI7" s="28"/>
-      <c r="AJ7" s="77"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="59"/>
       <c r="AK7" s="5"/>
-      <c r="AM7" s="51" t="s">
+      <c r="AM7" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="AN7" s="51"/>
-      <c r="AO7" s="51"/>
-      <c r="AP7" s="51"/>
-      <c r="AQ7" s="51"/>
-      <c r="AR7" s="51"/>
-      <c r="AS7" s="51"/>
+      <c r="AN7" s="76"/>
+      <c r="AO7" s="76"/>
+      <c r="AP7" s="76"/>
+      <c r="AQ7" s="76"/>
+      <c r="AR7" s="76"/>
+      <c r="AS7" s="76"/>
     </row>
     <row r="8" spans="2:46" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="13"/>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="68"/>
+      <c r="C8" s="69" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -1896,13 +1950,13 @@
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="30"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="24"/>
       <c r="S8" s="12"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="30"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="24"/>
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
@@ -1915,28 +1969,28 @@
       <c r="AF8" s="12"/>
       <c r="AG8" s="12"/>
       <c r="AH8" s="12"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="77"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="59"/>
       <c r="AK8" s="5"/>
-      <c r="AM8" s="51"/>
-      <c r="AN8" s="51"/>
-      <c r="AO8" s="51"/>
-      <c r="AP8" s="51"/>
-      <c r="AQ8" s="51"/>
-      <c r="AR8" s="51"/>
-      <c r="AS8" s="51"/>
-      <c r="AT8" s="52"/>
+      <c r="AM8" s="76"/>
+      <c r="AN8" s="76"/>
+      <c r="AO8" s="76"/>
+      <c r="AP8" s="76"/>
+      <c r="AQ8" s="76"/>
+      <c r="AR8" s="76"/>
+      <c r="AS8" s="76"/>
+      <c r="AT8" s="38"/>
     </row>
     <row r="9" spans="2:46" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="12" t="s">
         <v>60</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
@@ -1944,13 +1998,13 @@
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="30"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="24"/>
       <c r="S9" s="12"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="30"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="24"/>
       <c r="W9" s="12"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
@@ -1963,42 +2017,42 @@
       <c r="AF9" s="12"/>
       <c r="AG9" s="12"/>
       <c r="AH9" s="12"/>
-      <c r="AI9" s="28"/>
-      <c r="AJ9" s="77"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="59"/>
       <c r="AK9" s="5"/>
-      <c r="AM9" s="51"/>
-      <c r="AN9" s="51"/>
-      <c r="AO9" s="51"/>
-      <c r="AP9" s="51"/>
-      <c r="AQ9" s="51"/>
-      <c r="AR9" s="51"/>
-      <c r="AS9" s="51"/>
-      <c r="AT9" s="52"/>
+      <c r="AM9" s="76"/>
+      <c r="AN9" s="76"/>
+      <c r="AO9" s="76"/>
+      <c r="AP9" s="76"/>
+      <c r="AQ9" s="76"/>
+      <c r="AR9" s="76"/>
+      <c r="AS9" s="76"/>
+      <c r="AT9" s="38"/>
     </row>
     <row r="10" spans="2:46" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="9"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="30"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="24"/>
       <c r="S10" s="12"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="30"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="24"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="12"/>
@@ -2011,42 +2065,42 @@
       <c r="AF10" s="12"/>
       <c r="AG10" s="12"/>
       <c r="AH10" s="12"/>
-      <c r="AI10" s="28"/>
-      <c r="AJ10" s="77"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="59"/>
       <c r="AK10" s="5"/>
-      <c r="AM10" s="51"/>
-      <c r="AN10" s="51"/>
-      <c r="AO10" s="51"/>
-      <c r="AP10" s="51"/>
-      <c r="AQ10" s="51"/>
-      <c r="AR10" s="51"/>
-      <c r="AS10" s="51"/>
-      <c r="AT10" s="52"/>
+      <c r="AM10" s="76"/>
+      <c r="AN10" s="76"/>
+      <c r="AO10" s="76"/>
+      <c r="AP10" s="76"/>
+      <c r="AQ10" s="76"/>
+      <c r="AR10" s="76"/>
+      <c r="AS10" s="76"/>
+      <c r="AT10" s="38"/>
     </row>
     <row r="11" spans="2:46" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="9"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="30"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="12"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="30"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="24"/>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
@@ -2059,21 +2113,21 @@
       <c r="AF11" s="12"/>
       <c r="AG11" s="12"/>
       <c r="AH11" s="12"/>
-      <c r="AI11" s="28"/>
-      <c r="AJ11" s="77"/>
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="59"/>
       <c r="AK11" s="5"/>
-      <c r="AM11" s="51"/>
-      <c r="AN11" s="51"/>
-      <c r="AO11" s="51"/>
-      <c r="AP11" s="51"/>
-      <c r="AQ11" s="51"/>
-      <c r="AR11" s="51"/>
-      <c r="AS11" s="51"/>
-      <c r="AT11" s="52"/>
+      <c r="AM11" s="76"/>
+      <c r="AN11" s="76"/>
+      <c r="AO11" s="76"/>
+      <c r="AP11" s="76"/>
+      <c r="AQ11" s="76"/>
+      <c r="AR11" s="76"/>
+      <c r="AS11" s="76"/>
+      <c r="AT11" s="38"/>
     </row>
     <row r="12" spans="2:46" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="69"/>
       <c r="D12" s="12" t="s">
         <v>53</v>
       </c>
@@ -2085,16 +2139,16 @@
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="30"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="24"/>
       <c r="S12" s="12"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="30"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="24"/>
       <c r="W12" s="12"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="12"/>
@@ -2107,22 +2161,22 @@
       <c r="AF12" s="12"/>
       <c r="AG12" s="12"/>
       <c r="AH12" s="12"/>
-      <c r="AI12" s="28"/>
-      <c r="AJ12" s="77"/>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="59"/>
       <c r="AK12" s="5"/>
-      <c r="AM12" s="51"/>
-      <c r="AN12" s="51"/>
-      <c r="AO12" s="51"/>
-      <c r="AP12" s="51"/>
-      <c r="AQ12" s="51"/>
-      <c r="AR12" s="51"/>
-      <c r="AS12" s="51"/>
-      <c r="AT12" s="52"/>
+      <c r="AM12" s="76"/>
+      <c r="AN12" s="76"/>
+      <c r="AO12" s="76"/>
+      <c r="AP12" s="76"/>
+      <c r="AQ12" s="76"/>
+      <c r="AR12" s="76"/>
+      <c r="AS12" s="76"/>
+      <c r="AT12" s="38"/>
     </row>
     <row r="13" spans="2:46" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="57" t="s">
+      <c r="B13" s="68"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="42" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="12"/>
@@ -2136,13 +2190,13 @@
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="30"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="24"/>
       <c r="S13" s="9"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="55"/>
-      <c r="V13" s="30"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="24"/>
       <c r="W13" s="12"/>
       <c r="X13" s="12"/>
       <c r="Y13" s="12"/>
@@ -2155,22 +2209,22 @@
       <c r="AF13" s="12"/>
       <c r="AG13" s="12"/>
       <c r="AH13" s="12"/>
-      <c r="AI13" s="28"/>
-      <c r="AJ13" s="77"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="59"/>
       <c r="AK13" s="5"/>
-      <c r="AM13" s="51"/>
-      <c r="AN13" s="51"/>
-      <c r="AO13" s="51"/>
-      <c r="AP13" s="51"/>
-      <c r="AQ13" s="51"/>
-      <c r="AR13" s="51"/>
-      <c r="AS13" s="51"/>
-      <c r="AT13" s="52"/>
+      <c r="AM13" s="76"/>
+      <c r="AN13" s="76"/>
+      <c r="AO13" s="76"/>
+      <c r="AP13" s="76"/>
+      <c r="AQ13" s="76"/>
+      <c r="AR13" s="76"/>
+      <c r="AS13" s="76"/>
+      <c r="AT13" s="38"/>
     </row>
     <row r="14" spans="2:46" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="57" t="s">
+      <c r="B14" s="68"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="42" t="s">
         <v>63</v>
       </c>
       <c r="E14" s="12"/>
@@ -2184,13 +2238,13 @@
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="30"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="24"/>
       <c r="S14" s="12"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="30"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="24"/>
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
@@ -2203,21 +2257,21 @@
       <c r="AF14" s="12"/>
       <c r="AG14" s="12"/>
       <c r="AH14" s="12"/>
-      <c r="AI14" s="28"/>
-      <c r="AJ14" s="77"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="59"/>
       <c r="AK14" s="5"/>
-      <c r="AM14" s="51"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="51"/>
-      <c r="AP14" s="51"/>
-      <c r="AQ14" s="51"/>
-      <c r="AR14" s="51"/>
-      <c r="AS14" s="51"/>
-      <c r="AT14" s="52"/>
+      <c r="AM14" s="76"/>
+      <c r="AN14" s="76"/>
+      <c r="AO14" s="76"/>
+      <c r="AP14" s="76"/>
+      <c r="AQ14" s="76"/>
+      <c r="AR14" s="76"/>
+      <c r="AS14" s="76"/>
+      <c r="AT14" s="38"/>
     </row>
     <row r="15" spans="2:46" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="13"/>
-      <c r="C15" s="81" t="s">
+      <c r="B15" s="68"/>
+      <c r="C15" s="80" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="12" t="s">
@@ -2227,20 +2281,20 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="30"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="24"/>
       <c r="S15" s="12"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="30"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="24"/>
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
@@ -2253,28 +2307,28 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="12"/>
       <c r="AH15" s="12"/>
-      <c r="AI15" s="28"/>
-      <c r="AJ15" s="77"/>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="59"/>
       <c r="AK15" s="5"/>
-      <c r="AM15" s="51"/>
-      <c r="AN15" s="51"/>
-      <c r="AO15" s="51"/>
-      <c r="AP15" s="51"/>
-      <c r="AQ15" s="51"/>
-      <c r="AR15" s="51"/>
-      <c r="AS15" s="51"/>
-      <c r="AT15" s="52"/>
+      <c r="AM15" s="76"/>
+      <c r="AN15" s="76"/>
+      <c r="AO15" s="76"/>
+      <c r="AP15" s="76"/>
+      <c r="AQ15" s="76"/>
+      <c r="AR15" s="76"/>
+      <c r="AS15" s="76"/>
+      <c r="AT15" s="38"/>
     </row>
     <row r="16" spans="2:46" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="13"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="56" t="s">
+      <c r="B16" s="68"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
@@ -2282,13 +2336,13 @@
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="30"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="24"/>
       <c r="S16" s="12"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="30"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="24"/>
       <c r="W16" s="12"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
@@ -2301,22 +2355,22 @@
       <c r="AF16" s="12"/>
       <c r="AG16" s="12"/>
       <c r="AH16" s="12"/>
-      <c r="AI16" s="28"/>
-      <c r="AJ16" s="77"/>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="59"/>
       <c r="AK16" s="5"/>
-      <c r="AM16" s="51"/>
-      <c r="AN16" s="51"/>
-      <c r="AO16" s="51"/>
-      <c r="AP16" s="51"/>
-      <c r="AQ16" s="51"/>
-      <c r="AR16" s="51"/>
-      <c r="AS16" s="51"/>
-      <c r="AT16" s="52"/>
+      <c r="AM16" s="76"/>
+      <c r="AN16" s="76"/>
+      <c r="AO16" s="76"/>
+      <c r="AP16" s="76"/>
+      <c r="AQ16" s="76"/>
+      <c r="AR16" s="76"/>
+      <c r="AS16" s="76"/>
+      <c r="AT16" s="38"/>
     </row>
     <row r="17" spans="2:46" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="13"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="57" t="s">
+      <c r="B17" s="68"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="42" t="s">
         <v>55</v>
       </c>
       <c r="E17" s="12"/>
@@ -2330,13 +2384,13 @@
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="30"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="24"/>
       <c r="S17" s="12"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="30"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="24"/>
       <c r="W17" s="12"/>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
@@ -2349,22 +2403,22 @@
       <c r="AF17" s="12"/>
       <c r="AG17" s="12"/>
       <c r="AH17" s="12"/>
-      <c r="AI17" s="28"/>
-      <c r="AJ17" s="77"/>
+      <c r="AI17" s="22"/>
+      <c r="AJ17" s="59"/>
       <c r="AK17" s="5"/>
-      <c r="AM17" s="51"/>
-      <c r="AN17" s="51"/>
-      <c r="AO17" s="51"/>
-      <c r="AP17" s="51"/>
-      <c r="AQ17" s="51"/>
-      <c r="AR17" s="51"/>
-      <c r="AS17" s="51"/>
-      <c r="AT17" s="52"/>
+      <c r="AM17" s="76"/>
+      <c r="AN17" s="76"/>
+      <c r="AO17" s="76"/>
+      <c r="AP17" s="76"/>
+      <c r="AQ17" s="76"/>
+      <c r="AR17" s="76"/>
+      <c r="AS17" s="76"/>
+      <c r="AT17" s="38"/>
     </row>
     <row r="18" spans="2:46" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="13"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="56" t="s">
+      <c r="B18" s="68"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="81" t="s">
         <v>44</v>
       </c>
       <c r="E18" s="12"/>
@@ -2375,16 +2429,16 @@
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="60"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="30"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="24"/>
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
@@ -2397,22 +2451,22 @@
       <c r="AF18" s="12"/>
       <c r="AG18" s="12"/>
       <c r="AH18" s="12"/>
-      <c r="AI18" s="28"/>
-      <c r="AJ18" s="77"/>
+      <c r="AI18" s="22"/>
+      <c r="AJ18" s="59"/>
       <c r="AK18" s="5"/>
-      <c r="AM18" s="51"/>
-      <c r="AN18" s="51"/>
-      <c r="AO18" s="51"/>
-      <c r="AP18" s="51"/>
-      <c r="AQ18" s="51"/>
-      <c r="AR18" s="51"/>
-      <c r="AS18" s="51"/>
-      <c r="AT18" s="52"/>
+      <c r="AM18" s="76"/>
+      <c r="AN18" s="76"/>
+      <c r="AO18" s="76"/>
+      <c r="AP18" s="76"/>
+      <c r="AQ18" s="76"/>
+      <c r="AR18" s="76"/>
+      <c r="AS18" s="76"/>
+      <c r="AT18" s="38"/>
     </row>
     <row r="19" spans="2:46" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="13"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="57" t="s">
+      <c r="B19" s="68"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="42" t="s">
         <v>47</v>
       </c>
       <c r="E19" s="12"/>
@@ -2426,13 +2480,13 @@
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="30"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="24"/>
       <c r="S19" s="12"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="30"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="24"/>
       <c r="W19" s="12"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
@@ -2445,26 +2499,26 @@
       <c r="AF19" s="12"/>
       <c r="AG19" s="12"/>
       <c r="AH19" s="12"/>
-      <c r="AI19" s="28"/>
-      <c r="AJ19" s="77"/>
+      <c r="AI19" s="22"/>
+      <c r="AJ19" s="59"/>
       <c r="AK19" s="5"/>
-      <c r="AM19" s="17" t="s">
+      <c r="AM19" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AN19" s="52"/>
-      <c r="AO19" s="52"/>
-      <c r="AP19" s="52"/>
-      <c r="AQ19" s="52"/>
-      <c r="AR19" s="52"/>
-      <c r="AS19" s="52"/>
-      <c r="AT19" s="52"/>
+      <c r="AN19" s="38"/>
+      <c r="AO19" s="38"/>
+      <c r="AP19" s="38"/>
+      <c r="AQ19" s="38"/>
+      <c r="AR19" s="38"/>
+      <c r="AS19" s="38"/>
+      <c r="AT19" s="38"/>
     </row>
     <row r="20" spans="2:46" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="13"/>
-      <c r="C20" s="14" t="s">
+      <c r="B20" s="68"/>
+      <c r="C20" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="42" t="s">
         <v>59</v>
       </c>
       <c r="E20" s="12"/>
@@ -2478,13 +2532,13 @@
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="30"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="24"/>
       <c r="S20" s="12"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="30"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="24"/>
       <c r="W20" s="12"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
@@ -2497,98 +2551,98 @@
       <c r="AF20" s="12"/>
       <c r="AG20" s="12"/>
       <c r="AH20" s="12"/>
-      <c r="AI20" s="28"/>
-      <c r="AJ20" s="77"/>
+      <c r="AI20" s="22"/>
+      <c r="AJ20" s="59"/>
       <c r="AK20" s="5"/>
       <c r="AM20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AT20" s="52"/>
+      <c r="AT20" s="38"/>
     </row>
     <row r="21" spans="2:46" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="69"/>
       <c r="D21" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
       <c r="G21" s="9"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="30"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="24"/>
       <c r="S21" s="12"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="15"/>
-      <c r="AE21" s="15"/>
-      <c r="AF21" s="15"/>
-      <c r="AG21" s="15"/>
-      <c r="AH21" s="15"/>
-      <c r="AI21" s="28"/>
-      <c r="AJ21" s="77"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="22"/>
+      <c r="AJ21" s="59"/>
       <c r="AK21" s="5"/>
     </row>
     <row r="22" spans="2:46" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="69"/>
       <c r="D22" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
       <c r="G22" s="9"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="30"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="24"/>
       <c r="S22" s="12"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="15"/>
-      <c r="AF22" s="15"/>
-      <c r="AG22" s="15"/>
-      <c r="AH22" s="15"/>
-      <c r="AI22" s="28"/>
-      <c r="AJ22" s="77"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="22"/>
+      <c r="AJ22" s="59"/>
       <c r="AK22" s="5"/>
     </row>
     <row r="23" spans="2:46" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="57" t="s">
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="42" t="s">
         <v>36</v>
       </c>
       <c r="E23" s="12"/>
@@ -2602,13 +2656,13 @@
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="30"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="24"/>
       <c r="S23" s="12"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="30"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="24"/>
       <c r="W23" s="12"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
@@ -2621,16 +2675,16 @@
       <c r="AF23" s="12"/>
       <c r="AG23" s="12"/>
       <c r="AH23" s="12"/>
-      <c r="AI23" s="28"/>
-      <c r="AJ23" s="77"/>
+      <c r="AI23" s="22"/>
+      <c r="AJ23" s="59"/>
       <c r="AK23" s="5"/>
     </row>
     <row r="24" spans="2:46" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="13"/>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="68"/>
+      <c r="C24" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="42" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="12"/>
@@ -2644,13 +2698,13 @@
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="30"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="24"/>
       <c r="S24" s="12"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="30"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="24"/>
       <c r="W24" s="12"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
@@ -2663,14 +2717,14 @@
       <c r="AF24" s="12"/>
       <c r="AG24" s="12"/>
       <c r="AH24" s="12"/>
-      <c r="AI24" s="28"/>
-      <c r="AJ24" s="77"/>
+      <c r="AI24" s="22"/>
+      <c r="AJ24" s="59"/>
       <c r="AK24" s="5"/>
     </row>
     <row r="25" spans="2:46" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="13"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="57" t="s">
+      <c r="B25" s="68"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="42" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="12"/>
@@ -2684,13 +2738,13 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="30"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="24"/>
       <c r="S25" s="12"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="30"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="24"/>
       <c r="W25" s="12"/>
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
@@ -2703,14 +2757,14 @@
       <c r="AF25" s="12"/>
       <c r="AG25" s="12"/>
       <c r="AH25" s="12"/>
-      <c r="AI25" s="28"/>
-      <c r="AJ25" s="77"/>
+      <c r="AI25" s="22"/>
+      <c r="AJ25" s="59"/>
       <c r="AK25" s="5"/>
     </row>
     <row r="26" spans="2:46" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="13"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="57" t="s">
+      <c r="B26" s="68"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="42" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="12"/>
@@ -2724,13 +2778,13 @@
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="30"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="24"/>
       <c r="S26" s="12"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="30"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="24"/>
       <c r="W26" s="12"/>
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
@@ -2743,13 +2797,13 @@
       <c r="AF26" s="12"/>
       <c r="AG26" s="12"/>
       <c r="AH26" s="12"/>
-      <c r="AI26" s="28"/>
-      <c r="AJ26" s="77"/>
+      <c r="AI26" s="22"/>
+      <c r="AJ26" s="59"/>
       <c r="AK26" s="5"/>
     </row>
     <row r="27" spans="2:46" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="13"/>
-      <c r="C27" s="19"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="73"/>
       <c r="D27" s="12" t="s">
         <v>58</v>
       </c>
@@ -2757,20 +2811,20 @@
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="30"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="24"/>
       <c r="S27" s="12"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="30"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="24"/>
       <c r="W27" s="12"/>
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
@@ -2783,14 +2837,14 @@
       <c r="AF27" s="12"/>
       <c r="AG27" s="12"/>
       <c r="AH27" s="12"/>
-      <c r="AI27" s="28"/>
-      <c r="AJ27" s="77"/>
+      <c r="AI27" s="22"/>
+      <c r="AJ27" s="59"/>
       <c r="AK27" s="5"/>
     </row>
     <row r="28" spans="2:46" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="13"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="57" t="s">
+      <c r="B28" s="68"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="42" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="12"/>
@@ -2804,13 +2858,13 @@
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="30"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="24"/>
       <c r="S28" s="12"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="30"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="24"/>
       <c r="W28" s="12"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
@@ -2823,16 +2877,16 @@
       <c r="AF28" s="12"/>
       <c r="AG28" s="12"/>
       <c r="AH28" s="12"/>
-      <c r="AI28" s="28"/>
-      <c r="AJ28" s="77"/>
+      <c r="AI28" s="22"/>
+      <c r="AJ28" s="59"/>
       <c r="AK28" s="5"/>
     </row>
     <row r="29" spans="2:46" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="13"/>
-      <c r="C29" s="61" t="s">
+      <c r="B29" s="68"/>
+      <c r="C29" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="57" t="s">
+      <c r="D29" s="42" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="12"/>
@@ -2846,13 +2900,13 @@
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="30"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="24"/>
       <c r="S29" s="12"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="30"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="24"/>
       <c r="W29" s="12"/>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
@@ -2865,14 +2919,14 @@
       <c r="AF29" s="12"/>
       <c r="AG29" s="12"/>
       <c r="AH29" s="12"/>
-      <c r="AI29" s="28"/>
-      <c r="AJ29" s="77"/>
+      <c r="AI29" s="22"/>
+      <c r="AJ29" s="59"/>
       <c r="AK29" s="5"/>
     </row>
     <row r="30" spans="2:46" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="13"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="57" t="s">
+      <c r="B30" s="68"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="42" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="12"/>
@@ -2886,13 +2940,13 @@
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="30"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="24"/>
       <c r="S30" s="12"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="30"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="24"/>
       <c r="W30" s="12"/>
       <c r="X30" s="12"/>
       <c r="Y30" s="12"/>
@@ -2905,14 +2959,14 @@
       <c r="AF30" s="12"/>
       <c r="AG30" s="12"/>
       <c r="AH30" s="12"/>
-      <c r="AI30" s="28"/>
-      <c r="AJ30" s="77"/>
+      <c r="AI30" s="22"/>
+      <c r="AJ30" s="59"/>
       <c r="AK30" s="5"/>
     </row>
     <row r="31" spans="2:46" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="13"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="57" t="s">
+      <c r="B31" s="68"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="42" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="12"/>
@@ -2926,13 +2980,13 @@
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="30"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="24"/>
       <c r="S31" s="12"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="30"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="24"/>
       <c r="W31" s="12"/>
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
@@ -2945,53 +2999,53 @@
       <c r="AF31" s="12"/>
       <c r="AG31" s="12"/>
       <c r="AH31" s="12"/>
-      <c r="AI31" s="28"/>
-      <c r="AJ31" s="77"/>
+      <c r="AI31" s="22"/>
+      <c r="AJ31" s="59"/>
       <c r="AK31" s="5"/>
     </row>
     <row r="32" spans="2:46" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="14"/>
-      <c r="AA32" s="14"/>
-      <c r="AB32" s="14"/>
-      <c r="AC32" s="14"/>
-      <c r="AD32" s="14"/>
-      <c r="AE32" s="14"/>
-      <c r="AF32" s="14"/>
-      <c r="AG32" s="14"/>
-      <c r="AH32" s="14"/>
-      <c r="AI32" s="14"/>
-      <c r="AJ32" s="76"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="69"/>
+      <c r="Q32" s="74"/>
+      <c r="R32" s="69"/>
+      <c r="S32" s="69"/>
+      <c r="T32" s="69"/>
+      <c r="U32" s="74"/>
+      <c r="V32" s="69"/>
+      <c r="W32" s="69"/>
+      <c r="X32" s="69"/>
+      <c r="Y32" s="69"/>
+      <c r="Z32" s="69"/>
+      <c r="AA32" s="69"/>
+      <c r="AB32" s="69"/>
+      <c r="AC32" s="69"/>
+      <c r="AD32" s="69"/>
+      <c r="AE32" s="69"/>
+      <c r="AF32" s="69"/>
+      <c r="AG32" s="69"/>
+      <c r="AH32" s="69"/>
+      <c r="AI32" s="69"/>
+      <c r="AJ32" s="75"/>
       <c r="AK32" s="4"/>
     </row>
     <row r="33" spans="2:37" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="69" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
@@ -2999,8 +3053,8 @@
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="27"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="21"/>
       <c r="I33" s="10"/>
       <c r="J33" s="9"/>
       <c r="K33" s="12"/>
@@ -3008,13 +3062,13 @@
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="30"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="24"/>
       <c r="S33" s="12"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="30"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="24"/>
       <c r="W33" s="12"/>
       <c r="X33" s="12"/>
       <c r="Y33" s="12"/>
@@ -3027,12 +3081,12 @@
       <c r="AF33" s="12"/>
       <c r="AG33" s="12"/>
       <c r="AH33" s="12"/>
-      <c r="AI33" s="28"/>
-      <c r="AJ33" s="77"/>
+      <c r="AI33" s="22"/>
+      <c r="AJ33" s="59"/>
     </row>
     <row r="34" spans="2:37" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="69"/>
       <c r="D34" s="12" t="s">
         <v>41</v>
       </c>
@@ -3041,19 +3095,19 @@
       <c r="G34" s="12"/>
       <c r="H34" s="11"/>
       <c r="I34" s="10"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="30"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="24"/>
       <c r="S34" s="12"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="30"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="24"/>
       <c r="W34" s="12"/>
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
@@ -3066,12 +3120,12 @@
       <c r="AF34" s="12"/>
       <c r="AG34" s="12"/>
       <c r="AH34" s="12"/>
-      <c r="AI34" s="28"/>
-      <c r="AJ34" s="77"/>
+      <c r="AI34" s="22"/>
+      <c r="AJ34" s="59"/>
     </row>
     <row r="35" spans="2:37" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="69"/>
       <c r="D35" s="12" t="s">
         <v>20</v>
       </c>
@@ -3086,13 +3140,13 @@
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="73"/>
-      <c r="R35" s="72"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="56"/>
       <c r="S35" s="12"/>
-      <c r="T35" s="28"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="30"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="24"/>
       <c r="W35" s="12"/>
       <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
@@ -3105,54 +3159,54 @@
       <c r="AF35" s="12"/>
       <c r="AG35" s="12"/>
       <c r="AH35" s="12"/>
-      <c r="AI35" s="28"/>
-      <c r="AJ35" s="77"/>
+      <c r="AI35" s="22"/>
+      <c r="AJ35" s="59"/>
       <c r="AK35" s="5"/>
     </row>
     <row r="36" spans="2:37" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="69"/>
       <c r="D36" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="15"/>
+      <c r="K36" s="13"/>
       <c r="L36" s="12"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="65"/>
-      <c r="T36" s="68"/>
-      <c r="U36" s="39"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="15"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="52"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="13"/>
       <c r="X36" s="12"/>
       <c r="Y36" s="12"/>
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
       <c r="AB36" s="12"/>
-      <c r="AC36" s="15"/>
-      <c r="AD36" s="15"/>
-      <c r="AE36" s="15"/>
+      <c r="AC36" s="13"/>
+      <c r="AD36" s="13"/>
+      <c r="AE36" s="13"/>
       <c r="AF36" s="12"/>
       <c r="AG36" s="12"/>
       <c r="AH36" s="12"/>
-      <c r="AI36" s="28"/>
-      <c r="AJ36" s="78"/>
+      <c r="AI36" s="22"/>
+      <c r="AJ36" s="60"/>
       <c r="AK36" s="5"/>
     </row>
     <row r="37" spans="2:37" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="57" t="s">
+      <c r="B37" s="68"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="42" t="s">
         <v>37</v>
       </c>
       <c r="E37" s="12"/>
@@ -3166,13 +3220,13 @@
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="30"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="24"/>
       <c r="S37" s="12"/>
-      <c r="T37" s="28"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="30"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="24"/>
       <c r="W37" s="12"/>
       <c r="X37" s="12"/>
       <c r="Y37" s="12"/>
@@ -3185,14 +3239,14 @@
       <c r="AF37" s="12"/>
       <c r="AG37" s="12"/>
       <c r="AH37" s="12"/>
-      <c r="AI37" s="28"/>
-      <c r="AJ37" s="78"/>
+      <c r="AI37" s="22"/>
+      <c r="AJ37" s="60"/>
       <c r="AK37" s="5"/>
     </row>
     <row r="38" spans="2:37" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="57" t="s">
+      <c r="B38" s="68"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="42" t="s">
         <v>16</v>
       </c>
       <c r="E38" s="12"/>
@@ -3206,13 +3260,13 @@
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="30"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="24"/>
       <c r="S38" s="12"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="38"/>
-      <c r="V38" s="30"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="24"/>
       <c r="W38" s="12"/>
       <c r="X38" s="12"/>
       <c r="Y38" s="12"/>
@@ -3225,18 +3279,18 @@
       <c r="AF38" s="12"/>
       <c r="AG38" s="12"/>
       <c r="AH38" s="12"/>
-      <c r="AI38" s="28"/>
-      <c r="AJ38" s="78"/>
+      <c r="AI38" s="22"/>
+      <c r="AJ38" s="60"/>
       <c r="AK38" s="5"/>
     </row>
     <row r="39" spans="2:37" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="69"/>
       <c r="D39" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
       <c r="G39" s="10"/>
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
@@ -3246,13 +3300,13 @@
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="30"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="24"/>
       <c r="S39" s="12"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="39"/>
-      <c r="V39" s="31"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="32"/>
+      <c r="V39" s="25"/>
       <c r="W39" s="12"/>
       <c r="X39" s="12"/>
       <c r="Y39" s="12"/>
@@ -3265,20 +3319,20 @@
       <c r="AF39" s="12"/>
       <c r="AG39" s="12"/>
       <c r="AH39" s="12"/>
-      <c r="AI39" s="28"/>
-      <c r="AJ39" s="78"/>
+      <c r="AI39" s="22"/>
+      <c r="AJ39" s="60"/>
       <c r="AK39" s="5"/>
     </row>
     <row r="40" spans="2:37" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="69"/>
       <c r="D40" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
       <c r="I40" s="5"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
@@ -3286,13 +3340,13 @@
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
       <c r="O40" s="12"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="30"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="24"/>
       <c r="S40" s="12"/>
-      <c r="T40" s="28"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="30"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="24"/>
       <c r="W40" s="12"/>
       <c r="X40" s="12"/>
       <c r="Y40" s="12"/>
@@ -3305,14 +3359,14 @@
       <c r="AF40" s="12"/>
       <c r="AG40" s="12"/>
       <c r="AH40" s="12"/>
-      <c r="AI40" s="28"/>
-      <c r="AJ40" s="78"/>
+      <c r="AI40" s="22"/>
+      <c r="AJ40" s="60"/>
       <c r="AK40" s="5"/>
     </row>
     <row r="41" spans="2:37" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="57" t="s">
+      <c r="B41" s="68"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="42" t="s">
         <v>42</v>
       </c>
       <c r="E41" s="12"/>
@@ -3326,13 +3380,13 @@
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
       <c r="O41" s="12"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="30"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="24"/>
       <c r="S41" s="12"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="38"/>
-      <c r="V41" s="30"/>
+      <c r="T41" s="22"/>
+      <c r="U41" s="31"/>
+      <c r="V41" s="24"/>
       <c r="W41" s="12"/>
       <c r="X41" s="12"/>
       <c r="Y41" s="12"/>
@@ -3345,96 +3399,96 @@
       <c r="AF41" s="12"/>
       <c r="AG41" s="12"/>
       <c r="AH41" s="12"/>
-      <c r="AI41" s="28"/>
-      <c r="AJ41" s="78"/>
+      <c r="AI41" s="22"/>
+      <c r="AJ41" s="60"/>
       <c r="AK41" s="5"/>
     </row>
     <row r="42" spans="2:37" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="13"/>
-      <c r="C42" s="14" t="s">
+      <c r="B42" s="68"/>
+      <c r="C42" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="35"/>
-      <c r="S42" s="16"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="40"/>
-      <c r="V42" s="35"/>
-      <c r="W42" s="16"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="33"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="14"/>
       <c r="X42" s="12"/>
-      <c r="Y42" s="15"/>
-      <c r="Z42" s="15"/>
-      <c r="AA42" s="15"/>
-      <c r="AB42" s="15"/>
-      <c r="AC42" s="15"/>
-      <c r="AD42" s="15"/>
-      <c r="AE42" s="15"/>
-      <c r="AF42" s="15"/>
-      <c r="AG42" s="15"/>
-      <c r="AH42" s="15"/>
-      <c r="AI42" s="34"/>
-      <c r="AJ42" s="78"/>
+      <c r="Y42" s="13"/>
+      <c r="Z42" s="13"/>
+      <c r="AA42" s="13"/>
+      <c r="AB42" s="13"/>
+      <c r="AC42" s="13"/>
+      <c r="AD42" s="13"/>
+      <c r="AE42" s="13"/>
+      <c r="AF42" s="13"/>
+      <c r="AG42" s="13"/>
+      <c r="AH42" s="13"/>
+      <c r="AI42" s="28"/>
+      <c r="AJ42" s="60"/>
       <c r="AK42" s="8"/>
     </row>
     <row r="43" spans="2:37" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="36"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="36"/>
-      <c r="V43" s="14"/>
-      <c r="W43" s="14"/>
-      <c r="X43" s="14"/>
-      <c r="Y43" s="14"/>
-      <c r="Z43" s="14"/>
-      <c r="AA43" s="14"/>
-      <c r="AB43" s="14"/>
-      <c r="AC43" s="14"/>
-      <c r="AD43" s="14"/>
-      <c r="AE43" s="14"/>
-      <c r="AF43" s="14"/>
-      <c r="AG43" s="14"/>
-      <c r="AH43" s="14"/>
-      <c r="AI43" s="14"/>
-      <c r="AJ43" s="76"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="69"/>
+      <c r="N43" s="69"/>
+      <c r="O43" s="69"/>
+      <c r="P43" s="69"/>
+      <c r="Q43" s="74"/>
+      <c r="R43" s="69"/>
+      <c r="S43" s="69"/>
+      <c r="T43" s="69"/>
+      <c r="U43" s="74"/>
+      <c r="V43" s="69"/>
+      <c r="W43" s="69"/>
+      <c r="X43" s="69"/>
+      <c r="Y43" s="69"/>
+      <c r="Z43" s="69"/>
+      <c r="AA43" s="69"/>
+      <c r="AB43" s="69"/>
+      <c r="AC43" s="69"/>
+      <c r="AD43" s="69"/>
+      <c r="AE43" s="69"/>
+      <c r="AF43" s="69"/>
+      <c r="AG43" s="69"/>
+      <c r="AH43" s="69"/>
+      <c r="AI43" s="69"/>
+      <c r="AJ43" s="75"/>
       <c r="AK43" s="4"/>
     </row>
     <row r="44" spans="2:37" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
@@ -3444,14 +3498,14 @@
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
       <c r="O44" s="12"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="33"/>
-      <c r="R44" s="30"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="24"/>
       <c r="S44" s="12"/>
-      <c r="T44" s="28"/>
-      <c r="U44" s="39"/>
-      <c r="V44" s="31"/>
-      <c r="W44" s="15"/>
+      <c r="T44" s="22"/>
+      <c r="U44" s="32"/>
+      <c r="V44" s="25"/>
+      <c r="W44" s="13"/>
       <c r="X44" s="12"/>
       <c r="Y44" s="12"/>
       <c r="Z44" s="12"/>
@@ -3463,37 +3517,37 @@
       <c r="AF44" s="12"/>
       <c r="AG44" s="12"/>
       <c r="AH44" s="12"/>
-      <c r="AI44" s="28"/>
-      <c r="AJ44" s="77"/>
+      <c r="AI44" s="22"/>
+      <c r="AJ44" s="59"/>
       <c r="AK44" s="8"/>
     </row>
     <row r="45" spans="2:37" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="14"/>
+      <c r="C45" s="69"/>
       <c r="D45" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="50"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
       <c r="O45" s="12"/>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="30"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="24"/>
       <c r="S45" s="12"/>
-      <c r="T45" s="28"/>
-      <c r="U45" s="39"/>
-      <c r="V45" s="31"/>
-      <c r="W45" s="15"/>
+      <c r="T45" s="22"/>
+      <c r="U45" s="32"/>
+      <c r="V45" s="25"/>
+      <c r="W45" s="13"/>
       <c r="X45" s="12"/>
       <c r="Y45" s="12"/>
       <c r="Z45" s="12"/>
@@ -3505,35 +3559,35 @@
       <c r="AF45" s="12"/>
       <c r="AG45" s="12"/>
       <c r="AH45" s="12"/>
-      <c r="AI45" s="28"/>
-      <c r="AJ45" s="77"/>
+      <c r="AI45" s="22"/>
+      <c r="AJ45" s="59"/>
       <c r="AK45" s="8"/>
     </row>
     <row r="46" spans="2:37" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="13"/>
-      <c r="C46" s="14"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="69"/>
       <c r="D46" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="50"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
       <c r="O46" s="12"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="30"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="24"/>
       <c r="S46" s="12"/>
-      <c r="T46" s="28"/>
-      <c r="U46" s="39"/>
-      <c r="V46" s="31"/>
-      <c r="W46" s="15"/>
+      <c r="T46" s="22"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="25"/>
+      <c r="W46" s="13"/>
       <c r="X46" s="12"/>
       <c r="Y46" s="12"/>
       <c r="Z46" s="12"/>
@@ -3545,64 +3599,54 @@
       <c r="AF46" s="12"/>
       <c r="AG46" s="12"/>
       <c r="AH46" s="12"/>
-      <c r="AI46" s="28"/>
-      <c r="AJ46" s="77"/>
+      <c r="AI46" s="22"/>
+      <c r="AJ46" s="59"/>
       <c r="AK46" s="8"/>
     </row>
     <row r="47" spans="2:37" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="20"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="22" t="s">
+      <c r="B47" s="70"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="64"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="47"/>
-      <c r="Q47" s="79"/>
-      <c r="R47" s="74"/>
-      <c r="S47" s="22"/>
-      <c r="T47" s="47"/>
-      <c r="U47" s="48"/>
-      <c r="V47" s="49"/>
-      <c r="W47" s="23"/>
-      <c r="X47" s="22"/>
-      <c r="Y47" s="22"/>
-      <c r="Z47" s="22"/>
-      <c r="AA47" s="22"/>
-      <c r="AB47" s="22"/>
-      <c r="AC47" s="22"/>
-      <c r="AD47" s="22"/>
-      <c r="AE47" s="22"/>
-      <c r="AF47" s="22"/>
-      <c r="AG47" s="22"/>
-      <c r="AH47" s="22"/>
-      <c r="AI47" s="47"/>
-      <c r="AJ47" s="80"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="61"/>
+      <c r="R47" s="58"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="35"/>
+      <c r="V47" s="36"/>
+      <c r="W47" s="17"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="16"/>
+      <c r="Z47" s="16"/>
+      <c r="AA47" s="16"/>
+      <c r="AB47" s="16"/>
+      <c r="AC47" s="16"/>
+      <c r="AD47" s="16"/>
+      <c r="AE47" s="16"/>
+      <c r="AF47" s="16"/>
+      <c r="AG47" s="16"/>
+      <c r="AH47" s="16"/>
+      <c r="AI47" s="34"/>
+      <c r="AJ47" s="62"/>
     </row>
     <row r="48" spans="2:37" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="U2:X2"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="B45:C47"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B33:B42"/>
-    <mergeCell ref="B43:AJ43"/>
-    <mergeCell ref="B32:AJ32"/>
-    <mergeCell ref="C33:C41"/>
-    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B3:B31"/>
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="C24:C28"/>
     <mergeCell ref="AM7:AS18"/>
@@ -3613,8 +3657,18 @@
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="C8:C14"/>
     <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B3:B31"/>
+    <mergeCell ref="B45:C47"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B33:B42"/>
+    <mergeCell ref="B43:AJ43"/>
+    <mergeCell ref="B32:AJ32"/>
+    <mergeCell ref="C33:C41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="U2:X2"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AJ2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
